--- a/data/hotels_by_city/Dallas/Dallas_shard_79.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_79.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>laurencI5161JD</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>AmiaP1913</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r526824916-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>My husband and I decided to spend a night out and since he gets discount, they built a new wing, and it was in a decent location he chose Comfort Inn.  Once we arrived, around 6pm, we asked of we could have a room in the new wing and was told the they were no vacancies on that end. So, we accepted a room on the 2nd floor.  As we rode the elevator we noticed a strong musty odor. Our room had a stale smell.  I quickly started spraying lysol and lighting candles.  When we went in the bathroom we noticed one of the vanity lights was out.  So, we walked to the front desk to inform them we needed a light bulb changed in our bathroom.  We were assured it would be taken care of so we left for dinner. After returning a few hours to our room we discovered the light was still out.  So, I proceeded to car the front office, but to my surprise the phone did not work.  So, I used our personal phone and informed the front desk attendant of our dismay to see the light issue wasn't fixed and that the room phone was broken.  We did not get an apology or anything positive.  Instead we were told by the unempathetic female the maintenance crew was gone for the day and we would have to wait for someone to come in the morning....My husband and I decided to spend a night out and since he gets discount, they built a new wing, and it was in a decent location he chose Comfort Inn.  Once we arrived, around 6pm, we asked of we could have a room in the new wing and was told the they were no vacancies on that end. So, we accepted a room on the 2nd floor.  As we rode the elevator we noticed a strong musty odor. Our room had a stale smell.  I quickly started spraying lysol and lighting candles.  When we went in the bathroom we noticed one of the vanity lights was out.  So, we walked to the front desk to inform them we needed a light bulb changed in our bathroom.  We were assured it would be taken care of so we left for dinner. After returning a few hours to our room we discovered the light was still out.  So, I proceeded to car the front office, but to my surprise the phone did not work.  So, I used our personal phone and informed the front desk attendant of our dismay to see the light issue wasn't fixed and that the room phone was broken.  We did not get an apology or anything positive.  Instead we were told by the unempathetic female the maintenance crew was gone for the day and we would have to wait for someone to come in the morning.  I asked for a room change, we wanted adequate lighting and a functionable phone and I was told we are sold out.  I was totally disappointed and frustrated that the rooms were not properly checked to ensure all phones and lighting was functionable. I expressed my concerned and unhappiness and I was told you can tell that to the manager tomorrow.  Again no apology or concern to the customer.  Then to make manners even more grim someone from that establishment thought it was a good idea to call my husband's employer since we used the discount as if we were responsible for their poor upkept and horrible customer service.  My husband employer apologized for disturbing my husband and I with this situation and offer an apology for the poor service at the hotel.  But the nerve of Comfort Inn.  We will never return.  There were other flaws with this borderline run down establishment like: spider webs in the corners, filthy shower head, grimy looking walls, the toilet paper &amp; rod was not connected it was sitting on the toilet and the place smelled.  I only stayed because it was my husband's date night plan.More</t>
   </si>
   <si>
+    <t>Alex S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r519394998-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>cookMi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r514541988-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>dcjw700</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r485253933-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>This is what you would expect from a Comfort Inn.  The place is clean, service is good, breakfast is acceptable.  Just off the freeway south of Dallas.  Convenient to restaurants and businesses in the area.</t>
   </si>
   <si>
+    <t>Gardener2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r454732306-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Dmaniac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r447135404-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Linn77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r433673397-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>firesafetyguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r429494618-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>I stay in a good many hotels, and this is one of my worst experiences with a choice hotels brand. It's due for a facelift for sure. The staff is mostly nice and the place was "liveably clean;" but the rooms and bathrooms weren't sparking, and crickets came out of the bath faucet when I turned it on. We had lights burned out in the bathroom, reported and asked for repairs on day 1 - did not happen. The main breakfast lady (not the helper) was kind of short-tempered at times. Curtly regarding the empty coffee "There is no more - you'll have to go to the lobby."   Our AC in the room  barely got down to a comfortable temperature overnight, and the weather wasn't even that warm.  What really struck me the most was the caravan of laundry carts and garbage or laundry bins they had in the 1st floor hallway most of the day. I've attached a photo, which really doesn't do it justice. It's a constant hassle for egress with customers trying to get around them with their luggage going in both directions.More</t>
   </si>
   <si>
+    <t>Jane Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r422100432-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>guest8932016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r409510916-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>MNM1011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r407284879-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>We had a room in the new section of the building.  Very nicely sized and with a very comfortable bed.  Heard absolutely nothing all night and slept like babies.Very early risers in this hotel!  I typically am up by 5:00 and usually sit alone in the lobby typing reviews and blog posts.  Not here!  By 5:30 there were at least 50 others down in the lobby or in the breakfast room.Breakfast was plentiful and good.  Good service, reasonable price, and good rooms.  Worth a stay!</t>
   </si>
   <si>
+    <t>International_Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r397562158-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>jsfrye59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r395455381-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>32patriciaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r371741529-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -450,6 +495,9 @@
     <t>Getting out of our car to go inside to register we had to walk past a man smoking.  That should have been my signal to get back in our car and drive away.  It only got worse.On the floor of the elevator there was an empty coke can.  When the elevator door opened on the 2nd floor we were unable to get out with our luggage cart because large boxes were piled in front of the elevator.  A woman from housekeeping moved them out of the way.My husband and I are seniors.  I requested a room easy to get to.  Our room was at the end of two long hallways.  The very last room.Our king suite was acceptable.  No complaints there.  But wait!  Getting back on the elevator to go out for dinner, there on the floor was the same coke can plus a dirty cleaning rag. Back outside the same scenario of men smoking by the entrance.  A no smoking sign is posted but not enforced.  Cigarette butts cover the grassy area just around from the entrance.Back from dinner, walked past more smokers sitting on a bench by the entrance.This Comfort Inn feels like a truck stop.  We only saw men who seemed to be in town to do some kind of work in the area.  This is not a family hotel.  Not a good experience!More</t>
   </si>
   <si>
+    <t>Thomas C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r369928746-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -468,6 +516,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>jPeeLTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r364804076-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -486,6 +537,9 @@
     <t>Checking in was so easy with Mariah at the front desk. She made sure to tell us everything we'd need to know without us ever having to ask, including the Wifi password and all items available at the free breakfast and more. She politely handled questions from other guests in the lobby while never making us feel like we were waiting  (multitasking with total calmness and control).Our room was clean and comfy, exactly as the pictures show. Our king room had a separate sitting area with couch and table in addition to regular room furnishings. It was very spacious, not packed into tight space.The only thing I didn't like was that I couldn't find any way to pull the room darkening drapes fully closed so there was diffused light coming into the room all night from outside.I haven't been to breakfast yet.More</t>
   </si>
   <si>
+    <t>TLD64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r357794196-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -504,6 +558,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Ronald H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r345875598-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -525,6 +582,9 @@
     <t>Was put up in this hotel by my company so have no idea on price for what is provided.  While there for several weeks, work on interior cosmetic updates and repairs were started in the hallways and common areas.  Breakfast is in house prepared hot and cold food choices - which works fine for a couple of days but gets old after a week or so.  There is an outdoor pool and an exercise room which was also being renovated.  Requested maintenance work on the drain in the room at the end of week one and was still waiting for it when I left at the end of week three.More</t>
   </si>
   <si>
+    <t>larry s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r333294549-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -543,6 +603,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>zippersnapper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r332694280-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -561,6 +624,9 @@
     <t>Although my stay (so far) has not been a total loss, I feel compelled to say a few things. 1st, I was put in a "kitchenette room" unknown to me. Since I am staying 4 days, i was thrilled at first. My thrill quickly went to bewilderment when I realized the kitchenette did not include any cooking or eating ware at all...just a stove top. When I Inquired to the front desk, they said, yes that's correct...no eating utensils. I guess they expect guest to carry their own pots, pans &amp; dishes I suppose. This room happens to be for handicapped....I'm not handicapped. The second, and most disturbing thing is when I went to the breakfast room at 8:00 am to get breakfast. The place was empty, with the exception of the breakfast attendant. She was sitting in a chair, in a corner, almost out of site. The breakfast bar was empty..and I mean empty of all food. I must have just missed a major rush, because the food was cleaned out.....The breakfast attendant was sitting playing games on her cell phone. I stood watching her for about 10 seconds as she continued to play on her cell phone. She finally looked up at me and smiled. I asked her "Are you he breakfast attendant" ?. She just kind of nodded. I don't think she understood English. It was only after I took out my own cell phone and took...Although my stay (so far) has not been a total loss, I feel compelled to say a few things. 1st, I was put in a "kitchenette room" unknown to me. Since I am staying 4 days, i was thrilled at first. My thrill quickly went to bewilderment when I realized the kitchenette did not include any cooking or eating ware at all...just a stove top. When I Inquired to the front desk, they said, yes that's correct...no eating utensils. I guess they expect guest to carry their own pots, pans &amp; dishes I suppose. This room happens to be for handicapped....I'm not handicapped. The second, and most disturbing thing is when I went to the breakfast room at 8:00 am to get breakfast. The place was empty, with the exception of the breakfast attendant. She was sitting in a chair, in a corner, almost out of site. The breakfast bar was empty..and I mean empty of all food. I must have just missed a major rush, because the food was cleaned out.....The breakfast attendant was sitting playing games on her cell phone. I stood watching her for about 10 seconds as she continued to play on her cell phone. She finally looked up at me and smiled. I asked her "Are you he breakfast attendant" ?. She just kind of nodded. I don't think she understood English. It was only after I took out my own cell phone and took a pick of her playing on her phone, did she get up and go to the kitchen. I was so disgusted, I went to Denny's to eat. Of course the front desk wouldn't let me speak to "Ray" the owner. Nor would they give me his phone number. I called Choice Hotels corp customer service number, and all they offered to do was "find me other accommodations".   In conclusion: Choice hotels are a major disappointment, and this property needs a major employee housecleaning. While the rooms are pretty decent, the personnel have A LOT to be desired. I counted at least 3 people that should be fired ON THE SPOT. "Ray" needs to get it together. Brand standard is not up to par here at all.More</t>
   </si>
   <si>
+    <t>Richard R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r295369552-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -579,6 +645,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>TXAgitator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r294034681-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -603,6 +672,9 @@
     <t>This is one hotel of several that I stay at on a regular basis. I remember staying at this hotel when it was new and have been here several times since. They added a new wing with additional rooms that just opened a few weeks ago. The rest of the hotel could use a few updates like new carpeting in the rooms. The lounge chairs by the pool have seen better days as well- some are broken. The A/C unit in the room I'm staying in is noisy at times but may be worn out- especially considering the heavy use it has seen with the hot weather that exists here in Texas. Otherwise, it's in a quiet location and has very comfortable beds. The bedside 120V outlets in the lamp bases at bedside and on the desk are definitely a nice touch of convenience for charging laptops, cell phones, and other devices.This is still a far better hotel than many others in the area.More</t>
   </si>
   <si>
+    <t>joey y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r288244769-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -618,6 +690,9 @@
     <t>The pretty little girl, Meagan, was at the front desk always happy 2 help anyone with anything.   From the laundry room to extra shampoo, she is a cheerful personality and I'm sure everyone is appreciative.</t>
   </si>
   <si>
+    <t>texasmade11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282248474-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -636,6 +711,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>kat1019</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282227770-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -651,6 +729,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>daniellefosteer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282220155-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -669,6 +750,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Samantha T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282219541-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -684,6 +768,9 @@
     <t>We ended up staying here as we were passing through on our way back to San Antonio and we were exhausted, my two sons were absolutely cranky and just wanted us to stop somewhere and sleep. Upon arrival we noticed the grounds were clean and there were plenty of fast food places nearby. When we walked in we were greeted by Megan who was phenomenal, very professional and even accomidated our request to be away from other guests since I have two teen boys that aren't necessarily the quietest. When we entered the room it was clean had no odors or anything like that, husband and I went to dennys for some lunch, when we returned we found that our sons had managed to use all the towels and my husband wanted to take a shower. I rang the front desk and got Megan again who brought us more towels and was also able to answer my son's questions on what there was to do for fun and the nearest movie theatres and pizza places. I am beyond impressed and happy that we stayed at comfort inn. Amazing experience and would definitely make it a point to stop by again in the future.More</t>
   </si>
   <si>
+    <t>Dannib3299</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282218370-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -696,6 +783,9 @@
     <t>One of the best hotels I've stayed in. My room was very clean and the staff was very friendly and helpful. The laundry room was nice and clean. I would reccomend this hotel to anybody! Beyond happy with my choice.</t>
   </si>
   <si>
+    <t>Brandon F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282218145-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -708,6 +798,9 @@
     <t>I want to tell everyone how the great service was. The people that work there are always smiling. They seem like they love their jobs! There is one girl i think her name is Megan she works at the front counter and she always has a smile on her face she love to interact with others she was the one that helped me with everything and she answered every question i asked even if she didnt know where something was she would look it up for me. I will highly be back because of the great service i had from her!</t>
   </si>
   <si>
+    <t>bakerj7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r270886608-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -723,6 +816,9 @@
     <t>Clean, comfortable, good condition, good service, free continental breakfast, laundry, pool. Walking distance to multiple restaurants (Denny's, DQ, Taco Bell, et. al.) and a grocery. Minifridge, coffee maker, and microwave in the room. Ample parking.Regarding the noise, it is no worse than any other hotel. It is next to the freeway, but there were no raucous guests.One of the best economy hotels I've stayed at. Highly recommend.</t>
   </si>
   <si>
+    <t>Doug M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r261647754-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -741,6 +837,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>kazua21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r247149111-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -759,6 +858,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>s1arch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r244765711-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -777,6 +879,9 @@
     <t>The only thing good about this hotel is the service. The walls are paper thin, beds are terrible (if you have a bad back find another hotel). This hotel is said to be remodeled. So it looks like new paint, carpet and bedding (not new beds). Same beat up furniture. Shower had a hanging plastic shelf that was screwed into the tile. Place felt dirty even though it was clean. Very sloppy remodel!  Air doesn't work well. It is December and had ac on high and still was hot. Not sure about security but is in a bad part of Dallas. Drive 10 minutes south and find a better hotel in Waxahachie. More</t>
   </si>
   <si>
+    <t>Brinard O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r240910576-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -795,6 +900,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Larry_OK_580</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r225654916-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -813,6 +921,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Scott V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r206647015-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -834,6 +945,9 @@
     <t>Since I couldn't find any recent reviews of this hotel, I was a little nervous booking it. However, it was close to where I needed it to be. Upon arriving, I was quite relieved...the staff was friendly and the hotel appearred clean.  The only thing that I would say negative was the tub looked as though it could maybe use a deep cleaning..it appeared to have been "wiped down", but could have used a little scrubbing around the drain. Not bad though. And I feel like if I would have asked, they would have come to clean it..like I said, it wasn't bad..I'm just a bit picky about cleaning around fixtures:-) Breakfast was the normal: scrambled eggs, sausage, waffles,etc. Oranges could have been a little fresher and bananas would have been nice. Overall, it was a good stay and I would stay again.More</t>
   </si>
   <si>
+    <t>Wendy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r184495293-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -861,6 +975,9 @@
     <t>My co-worker and I stayed here for business and utilized the conference room for a training. The hotel staff was very friendly and took care of all of our needs. Our accommodations were excellent and the training room was very spacious. The room was very well lit, with many windows. There is a nice area to put training supplies and/or snacks for participants. Also there is free wi-fi and a projector screen. The breakfast bar was great and they provide all day coffee service for guests which is an extra bonus! Tennessee CASA was very impressed!More</t>
   </si>
   <si>
+    <t>RonandJoan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r175145066-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -882,6 +999,9 @@
     <t>The reviews seem mixed and mine is the same,  Front desk was  very nice,  easy checkin,  the room was warm upon arrival but  the AC cooled it down fine,but we could never figure out the TV, (and my husband usually can figure out ANYTHING!  )  Hair on blanket, bathtub surface  cracked and stained, made me insecure about using the pool.   Breakfast area is the smallest we have seen, but was fine for how many people ate when we did. It was the extended hot breakfast. The description of the room we reserved indicated a 1 BD suite with living room, so we did expect a separate bedroom, but it was just the extended bedroom suite with the pony wall between the sofa and beds, which had no light near the sofa nor coffee table.  The photos on the website do not show the "suite" with the 2 queen beds.  Only one night stand between the two which are shown on the website.  Not quite what we expected but was satisfactory,difficult to find, just be prepared for the frontage roads off 35, exit 210BMore</t>
   </si>
   <si>
+    <t>Kenny B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r165475703-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -903,6 +1023,9 @@
     <t>Have stayed here several times for business and cannot go wrong w this comfort inn. I always hold comfort inns everywhere at higher standards and this one didn't disappoint. The front desk were very friendly and helpful also if anything needed like extra towels pillows etc. they get right on it and the breakfast is ur plain everyday breakfast but it tastes very good and hey it's free. If ner the area and need a place to stay, give this place a try u wont b disappointed!!!More</t>
   </si>
   <si>
+    <t>rollinhottie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r165136168-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1044,9 @@
     <t>My company paid for me to stay here and within an hour I was trying to find a better place to stay that I would've GLADLY paid for. When I walked into the room it felt like the a/c hadn't been turned on in days. That wouldn't have been so bad if the a/c quickly cooled the room off, but unfortunately,  this was not the case.  It remained warm in the room all night.  The rooms are newly remodeled. . Very nice. The cable (directv) and the wifi are horrible. Cable kept freezing whatever I was watching. And the internet was spotty at best. Dont stay here even if it's free! !More</t>
   </si>
   <si>
+    <t>CodyC7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r156746966-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1065,9 @@
     <t>The staff was excellent! They were very polite and helpful in assisting me however they could. I wouldn't think twice about coming here again-- the experience was much appreciated and I can't thank you guys enough!More</t>
   </si>
   <si>
+    <t>C J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r147894444-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1086,9 @@
     <t>I stayed at this hotel for  3seperate weeks between October and December. The staff is very friendly and helpful. The area is good with restaurants, drug stores, grocery and Wal-Mart all within walking distance.  The rooms are oka. My first one was is need of repairs and had missing lampshades. My second was better with the exception of the shower curtain rod being pulled loose. The cleaning ladies are out, in force, every morning. However; the carpet looks like it doesn't get cleaned much. In fact, I did not hear them vacuum the whole time I was there. The free breakfast has adequate offerings.I also found a couple of silverfish in the showers in each room.More</t>
   </si>
   <si>
+    <t>hummingbird1995</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r139707731-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1110,9 @@
     <t>This hotel is nice for the money we pay.  We work with a trucking company and we get a discount because of it.  The breakfast is good.  The last time we stayed we got to eat the eggs and biscuts and gravey.  Which this was a first for us they never had that in the past.  The one thing that drives me crazy is that this hotel is not close to Walmart.  When we are there we don't have a vehicle and we are to tired to walk to the Walmart that is a least a mile away from the looks of it.  We did stay at this hotel for eight days waiting on our truck to get fixed.  Which my husband was paseing the floor.  I was on the internet, of course.  LOL  My husband was about to drive me crazy he was ready to get back to work.  I do like the restaurants that are close buy.  Dairy Queen, Taco bell, Denny.  The restaurants are nice.  A variety of food for all of those days we stayed there.  We even walked to Whataburger which was several blocks away.  We get a king bed which the beds are good.  The overall look of the hotel is nice.  The decor is nice.More</t>
   </si>
   <si>
+    <t>CathyNebo_NC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r135154195-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -996,6 +1131,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>corinthgran</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r117680905-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1155,9 @@
     <t>This Comfort Inn stay was not planned - we became sleepy driving and decided to pull over at first hotel we saw to spend the night.  What a pleasant surprise awaited us.  The clerk on duty was one of the managers.  She greeted us warmly and within minutes we had our room.  We asked for and were given senior citizen rates since husband and I are both seniors. The pictures are accurate-room very clean and spacious, with comfy beds, beautiful color on  tv, bathroom also clean with plenty of towels/ammenities.  There is free breakfast in mornings w/waffles, cereals, muffins, etc.  The breakfast area was small but adequate for us since we had no problem getting a table for 2.  We recommend this hotel and we would return if there is a need to do so.  There is free internet as well.More</t>
   </si>
   <si>
+    <t>Jeffery123456</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r94874700-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1173,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>Rofy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r80851089-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1194,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>ladybugsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r16651946-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1218,9 @@
     <t>First of all when we checked in the man at the front desk was very rude.  He had us in a smoking room and We definitely did not want a smoking room.  My husband and I are not smokers and we have a baby.  Anyway, we finally check in to a smoking room because they do not have an alternative and we needed a place to stay.  We get into our room and our carpet is wet and there is a mess on the floor.  Maintenance must have been working in that room because there was caulking left on the floor in a pile.   I immediately called the front desk and they said they would call the manager.  Absolutely nothing happened.  I called again and I was ignored.  I will never stay her again.  Horrible experience.More</t>
   </si>
   <si>
+    <t>TOG11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r6781613-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1234,9 @@
   </si>
   <si>
     <t>This Comfort Inn is located on the freeway south of Dallas and near very little.  My room was fine and the beds were very good.  The hotel claims to have an exercise room and all of the machines were broken.</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r860969-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
@@ -1606,43 +1759,47 @@
       <c r="A2" t="n">
         <v>42105</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>124690</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1662,50 +1819,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42105</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>124691</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1725,50 +1886,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42105</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>5104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1782,50 +1947,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42105</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124692</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>66</v>
-      </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1843,50 +2012,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42105</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>124689</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1906,50 +2079,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42105</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>124693</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1967,50 +2144,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42105</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>124694</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2024,50 +2205,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42105</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>41963</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2081,50 +2266,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42105</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124695</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2138,50 +2327,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42105</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>124696</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2201,50 +2394,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42105</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>81165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2264,50 +2461,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42105</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>124697</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2325,50 +2526,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42105</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>71676</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2386,50 +2591,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42105</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>124698</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2449,50 +2658,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42105</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>124699</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2510,50 +2723,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42105</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>124700</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2567,50 +2784,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42105</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>682</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2624,50 +2845,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42105</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>124701</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2687,50 +2912,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42105</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>124702</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2750,50 +2979,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42105</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>7846</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2813,50 +3046,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42105</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>124703</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2876,50 +3113,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42105</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>124704</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -2939,50 +3180,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42105</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>12067</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3002,50 +3247,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42105</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>124705</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3059,50 +3308,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42105</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>124706</v>
+      </c>
+      <c r="C26" t="s">
+        <v>218</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3120,50 +3373,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42105</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>124707</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3177,50 +3434,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42105</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>124708</v>
+      </c>
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3234,50 +3495,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42105</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>124709</v>
+      </c>
+      <c r="C29" t="s">
+        <v>237</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="J29" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O29" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3291,50 +3556,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42105</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>124710</v>
+      </c>
+      <c r="C30" t="s">
+        <v>244</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3348,50 +3617,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42105</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124711</v>
+      </c>
+      <c r="C31" t="s">
+        <v>250</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="J31" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3405,50 +3678,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42105</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>26754</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
         <v>227</v>
       </c>
-      <c r="J32" t="s">
-        <v>202</v>
-      </c>
       <c r="K32" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3462,41 +3739,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42105</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>124712</v>
+      </c>
+      <c r="C33" t="s">
+        <v>260</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="J33" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="K33" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -3515,50 +3796,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42105</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>25562</v>
+      </c>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3578,50 +3863,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42105</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124713</v>
+      </c>
+      <c r="C35" t="s">
+        <v>273</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3641,41 +3930,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42105</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>124714</v>
+      </c>
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="J36" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
@@ -3704,50 +3997,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42105</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>124715</v>
+      </c>
+      <c r="C37" t="s">
+        <v>287</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="J37" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="K37" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3765,50 +4062,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42105</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>124716</v>
+      </c>
+      <c r="C38" t="s">
+        <v>294</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="J38" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -3828,50 +4129,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42105</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>77328</v>
+      </c>
+      <c r="C39" t="s">
+        <v>301</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="J39" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -3895,50 +4200,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42105</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>13972</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -3960,56 +4269,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="X40" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="Y40" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42105</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>124717</v>
+      </c>
+      <c r="C41" t="s">
+        <v>319</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4031,56 +4344,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="X41" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="Y41" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42105</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>376</v>
+      </c>
+      <c r="C42" t="s">
+        <v>327</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="J42" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4102,47 +4419,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="X42" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="Y42" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42105</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>124718</v>
+      </c>
+      <c r="C43" t="s">
+        <v>335</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="J43" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="K43" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
@@ -4169,47 +4490,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="X43" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="Y43" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42105</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>124719</v>
+      </c>
+      <c r="C44" t="s">
+        <v>342</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="J44" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -4236,47 +4561,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="X44" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="Y44" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42105</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>782</v>
+      </c>
+      <c r="C45" t="s">
+        <v>349</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
@@ -4303,56 +4632,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="X45" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="Y45" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42105</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>124720</v>
+      </c>
+      <c r="C46" t="s">
+        <v>356</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="J46" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="K46" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4374,56 +4707,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="X46" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="Y46" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42105</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>124721</v>
+      </c>
+      <c r="C47" t="s">
+        <v>364</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="J47" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="K47" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4447,50 +4784,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42105</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124722</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="J48" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="K48" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4510,50 +4851,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42105</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>124723</v>
+      </c>
+      <c r="C49" t="s">
+        <v>379</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="J49" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="K49" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L49" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -4577,50 +4922,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42105</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>124724</v>
+      </c>
+      <c r="C50" t="s">
+        <v>385</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="J50" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="K50" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4644,50 +4993,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42105</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>124725</v>
+      </c>
+      <c r="C51" t="s">
+        <v>392</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="J51" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="K51" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -4711,41 +5064,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42105</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>16545</v>
+      </c>
+      <c r="C52" t="s">
+        <v>400</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="J52" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="K52" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="L52" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
@@ -4764,41 +5121,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>42105</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>406</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="J53" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="K53" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
@@ -4817,7 +5178,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_79.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_79.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>laurencI5161JD</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r584841411-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>56528</t>
+  </si>
+  <si>
+    <t>226205</t>
+  </si>
+  <si>
+    <t>584841411</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Oh my.</t>
+  </si>
+  <si>
+    <t>First let me be clear I’m here on business...meaning the accommodations were not up to me. And god willing I’m here for the next 22 days....One word. MOLD. I changed rooms 2 times and it (it being mold) seemed to follow. See photos. Also in the photos you’ll see many other aesthetically unappealing and possibly dangerous (broken light fixture) things I encountered. The second room reeked of smoke so bad. Oh... and towels? They are “delivered later in my stay...”.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r583574261-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>583574261</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Good for what we needed</t>
+  </si>
+  <si>
+    <t>It was a nice room. We had two queen beds and a fold out couch. It was big enough for our large family. The continental breakfast was not that good. We stayed here when we visited Scarborough fair and would stay again.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r544284849-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
-    <t>56528</t>
-  </si>
-  <si>
-    <t>226205</t>
-  </si>
-  <si>
     <t>544284849</t>
   </si>
   <si>
@@ -177,12 +216,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>AmiaP1913</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r526824916-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -207,9 +240,6 @@
     <t>My husband and I decided to spend a night out and since he gets discount, they built a new wing, and it was in a decent location he chose Comfort Inn.  Once we arrived, around 6pm, we asked of we could have a room in the new wing and was told the they were no vacancies on that end. So, we accepted a room on the 2nd floor.  As we rode the elevator we noticed a strong musty odor. Our room had a stale smell.  I quickly started spraying lysol and lighting candles.  When we went in the bathroom we noticed one of the vanity lights was out.  So, we walked to the front desk to inform them we needed a light bulb changed in our bathroom.  We were assured it would be taken care of so we left for dinner. After returning a few hours to our room we discovered the light was still out.  So, I proceeded to car the front office, but to my surprise the phone did not work.  So, I used our personal phone and informed the front desk attendant of our dismay to see the light issue wasn't fixed and that the room phone was broken.  We did not get an apology or anything positive.  Instead we were told by the unempathetic female the maintenance crew was gone for the day and we would have to wait for someone to come in the morning....My husband and I decided to spend a night out and since he gets discount, they built a new wing, and it was in a decent location he chose Comfort Inn.  Once we arrived, around 6pm, we asked of we could have a room in the new wing and was told the they were no vacancies on that end. So, we accepted a room on the 2nd floor.  As we rode the elevator we noticed a strong musty odor. Our room had a stale smell.  I quickly started spraying lysol and lighting candles.  When we went in the bathroom we noticed one of the vanity lights was out.  So, we walked to the front desk to inform them we needed a light bulb changed in our bathroom.  We were assured it would be taken care of so we left for dinner. After returning a few hours to our room we discovered the light was still out.  So, I proceeded to car the front office, but to my surprise the phone did not work.  So, I used our personal phone and informed the front desk attendant of our dismay to see the light issue wasn't fixed and that the room phone was broken.  We did not get an apology or anything positive.  Instead we were told by the unempathetic female the maintenance crew was gone for the day and we would have to wait for someone to come in the morning.  I asked for a room change, we wanted adequate lighting and a functionable phone and I was told we are sold out.  I was totally disappointed and frustrated that the rooms were not properly checked to ensure all phones and lighting was functionable. I expressed my concerned and unhappiness and I was told you can tell that to the manager tomorrow.  Again no apology or concern to the customer.  Then to make manners even more grim someone from that establishment thought it was a good idea to call my husband's employer since we used the discount as if we were responsible for their poor upkept and horrible customer service.  My husband employer apologized for disturbing my husband and I with this situation and offer an apology for the poor service at the hotel.  But the nerve of Comfort Inn.  We will never return.  There were other flaws with this borderline run down establishment like: spider webs in the corners, filthy shower head, grimy looking walls, the toilet paper &amp; rod was not connected it was sitting on the toilet and the place smelled.  I only stayed because it was my husband's date night plan.More</t>
   </si>
   <si>
-    <t>Alex S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r519394998-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -228,9 +258,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>cookMi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r514541988-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -264,12 +291,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>dcjw700</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r485253933-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -285,9 +306,6 @@
     <t>This is what you would expect from a Comfort Inn.  The place is clean, service is good, breakfast is acceptable.  Just off the freeway south of Dallas.  Convenient to restaurants and businesses in the area.</t>
   </si>
   <si>
-    <t>Gardener2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r454732306-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -306,9 +324,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Dmaniac</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r447135404-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -327,9 +342,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Linn77</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r433673397-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -348,9 +360,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>firesafetyguy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r429494618-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -369,9 +378,6 @@
     <t>I stay in a good many hotels, and this is one of my worst experiences with a choice hotels brand. It's due for a facelift for sure. The staff is mostly nice and the place was "liveably clean;" but the rooms and bathrooms weren't sparking, and crickets came out of the bath faucet when I turned it on. We had lights burned out in the bathroom, reported and asked for repairs on day 1 - did not happen. The main breakfast lady (not the helper) was kind of short-tempered at times. Curtly regarding the empty coffee "There is no more - you'll have to go to the lobby."   Our AC in the room  barely got down to a comfortable temperature overnight, and the weather wasn't even that warm.  What really struck me the most was the caravan of laundry carts and garbage or laundry bins they had in the 1st floor hallway most of the day. I've attached a photo, which really doesn't do it justice. It's a constant hassle for egress with customers trying to get around them with their luggage going in both directions.More</t>
   </si>
   <si>
-    <t>Jane Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r422100432-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -390,9 +396,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>guest8932016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r409510916-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -411,9 +414,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>MNM1011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r407284879-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -429,9 +429,6 @@
     <t>We had a room in the new section of the building.  Very nicely sized and with a very comfortable bed.  Heard absolutely nothing all night and slept like babies.Very early risers in this hotel!  I typically am up by 5:00 and usually sit alone in the lobby typing reviews and blog posts.  Not here!  By 5:30 there were at least 50 others down in the lobby or in the breakfast room.Breakfast was plentiful and good.  Good service, reasonable price, and good rooms.  Worth a stay!</t>
   </si>
   <si>
-    <t>International_Traveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r397562158-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>jsfrye59</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r395455381-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -471,9 +465,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>32patriciaa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r371741529-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -495,9 +486,6 @@
     <t>Getting out of our car to go inside to register we had to walk past a man smoking.  That should have been my signal to get back in our car and drive away.  It only got worse.On the floor of the elevator there was an empty coke can.  When the elevator door opened on the 2nd floor we were unable to get out with our luggage cart because large boxes were piled in front of the elevator.  A woman from housekeeping moved them out of the way.My husband and I are seniors.  I requested a room easy to get to.  Our room was at the end of two long hallways.  The very last room.Our king suite was acceptable.  No complaints there.  But wait!  Getting back on the elevator to go out for dinner, there on the floor was the same coke can plus a dirty cleaning rag. Back outside the same scenario of men smoking by the entrance.  A no smoking sign is posted but not enforced.  Cigarette butts cover the grassy area just around from the entrance.Back from dinner, walked past more smokers sitting on a bench by the entrance.This Comfort Inn feels like a truck stop.  We only saw men who seemed to be in town to do some kind of work in the area.  This is not a family hotel.  Not a good experience!More</t>
   </si>
   <si>
-    <t>Thomas C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r369928746-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -516,9 +504,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>jPeeLTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r364804076-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -537,9 +522,6 @@
     <t>Checking in was so easy with Mariah at the front desk. She made sure to tell us everything we'd need to know without us ever having to ask, including the Wifi password and all items available at the free breakfast and more. She politely handled questions from other guests in the lobby while never making us feel like we were waiting  (multitasking with total calmness and control).Our room was clean and comfy, exactly as the pictures show. Our king room had a separate sitting area with couch and table in addition to regular room furnishings. It was very spacious, not packed into tight space.The only thing I didn't like was that I couldn't find any way to pull the room darkening drapes fully closed so there was diffused light coming into the room all night from outside.I haven't been to breakfast yet.More</t>
   </si>
   <si>
-    <t>TLD64</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r357794196-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -558,9 +540,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Ronald H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r345875598-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -582,9 +561,6 @@
     <t>Was put up in this hotel by my company so have no idea on price for what is provided.  While there for several weeks, work on interior cosmetic updates and repairs were started in the hallways and common areas.  Breakfast is in house prepared hot and cold food choices - which works fine for a couple of days but gets old after a week or so.  There is an outdoor pool and an exercise room which was also being renovated.  Requested maintenance work on the drain in the room at the end of week one and was still waiting for it when I left at the end of week three.More</t>
   </si>
   <si>
-    <t>larry s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r333294549-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -603,9 +579,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>zippersnapper</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r332694280-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -624,9 +597,6 @@
     <t>Although my stay (so far) has not been a total loss, I feel compelled to say a few things. 1st, I was put in a "kitchenette room" unknown to me. Since I am staying 4 days, i was thrilled at first. My thrill quickly went to bewilderment when I realized the kitchenette did not include any cooking or eating ware at all...just a stove top. When I Inquired to the front desk, they said, yes that's correct...no eating utensils. I guess they expect guest to carry their own pots, pans &amp; dishes I suppose. This room happens to be for handicapped....I'm not handicapped. The second, and most disturbing thing is when I went to the breakfast room at 8:00 am to get breakfast. The place was empty, with the exception of the breakfast attendant. She was sitting in a chair, in a corner, almost out of site. The breakfast bar was empty..and I mean empty of all food. I must have just missed a major rush, because the food was cleaned out.....The breakfast attendant was sitting playing games on her cell phone. I stood watching her for about 10 seconds as she continued to play on her cell phone. She finally looked up at me and smiled. I asked her "Are you he breakfast attendant" ?. She just kind of nodded. I don't think she understood English. It was only after I took out my own cell phone and took...Although my stay (so far) has not been a total loss, I feel compelled to say a few things. 1st, I was put in a "kitchenette room" unknown to me. Since I am staying 4 days, i was thrilled at first. My thrill quickly went to bewilderment when I realized the kitchenette did not include any cooking or eating ware at all...just a stove top. When I Inquired to the front desk, they said, yes that's correct...no eating utensils. I guess they expect guest to carry their own pots, pans &amp; dishes I suppose. This room happens to be for handicapped....I'm not handicapped. The second, and most disturbing thing is when I went to the breakfast room at 8:00 am to get breakfast. The place was empty, with the exception of the breakfast attendant. She was sitting in a chair, in a corner, almost out of site. The breakfast bar was empty..and I mean empty of all food. I must have just missed a major rush, because the food was cleaned out.....The breakfast attendant was sitting playing games on her cell phone. I stood watching her for about 10 seconds as she continued to play on her cell phone. She finally looked up at me and smiled. I asked her "Are you he breakfast attendant" ?. She just kind of nodded. I don't think she understood English. It was only after I took out my own cell phone and took a pick of her playing on her phone, did she get up and go to the kitchen. I was so disgusted, I went to Denny's to eat. Of course the front desk wouldn't let me speak to "Ray" the owner. Nor would they give me his phone number. I called Choice Hotels corp customer service number, and all they offered to do was "find me other accommodations".   In conclusion: Choice hotels are a major disappointment, and this property needs a major employee housecleaning. While the rooms are pretty decent, the personnel have A LOT to be desired. I counted at least 3 people that should be fired ON THE SPOT. "Ray" needs to get it together. Brand standard is not up to par here at all.More</t>
   </si>
   <si>
-    <t>Richard R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r295369552-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -645,9 +615,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>TXAgitator</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r294034681-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -672,9 +639,6 @@
     <t>This is one hotel of several that I stay at on a regular basis. I remember staying at this hotel when it was new and have been here several times since. They added a new wing with additional rooms that just opened a few weeks ago. The rest of the hotel could use a few updates like new carpeting in the rooms. The lounge chairs by the pool have seen better days as well- some are broken. The A/C unit in the room I'm staying in is noisy at times but may be worn out- especially considering the heavy use it has seen with the hot weather that exists here in Texas. Otherwise, it's in a quiet location and has very comfortable beds. The bedside 120V outlets in the lamp bases at bedside and on the desk are definitely a nice touch of convenience for charging laptops, cell phones, and other devices.This is still a far better hotel than many others in the area.More</t>
   </si>
   <si>
-    <t>joey y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r288244769-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -690,9 +654,6 @@
     <t>The pretty little girl, Meagan, was at the front desk always happy 2 help anyone with anything.   From the laundry room to extra shampoo, she is a cheerful personality and I'm sure everyone is appreciative.</t>
   </si>
   <si>
-    <t>texasmade11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282248474-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -711,9 +672,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>kat1019</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282227770-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -729,9 +687,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>daniellefosteer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282220155-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -750,9 +705,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Samantha T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282219541-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -768,9 +720,6 @@
     <t>We ended up staying here as we were passing through on our way back to San Antonio and we were exhausted, my two sons were absolutely cranky and just wanted us to stop somewhere and sleep. Upon arrival we noticed the grounds were clean and there were plenty of fast food places nearby. When we walked in we were greeted by Megan who was phenomenal, very professional and even accomidated our request to be away from other guests since I have two teen boys that aren't necessarily the quietest. When we entered the room it was clean had no odors or anything like that, husband and I went to dennys for some lunch, when we returned we found that our sons had managed to use all the towels and my husband wanted to take a shower. I rang the front desk and got Megan again who brought us more towels and was also able to answer my son's questions on what there was to do for fun and the nearest movie theatres and pizza places. I am beyond impressed and happy that we stayed at comfort inn. Amazing experience and would definitely make it a point to stop by again in the future.More</t>
   </si>
   <si>
-    <t>Dannib3299</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282218370-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -783,9 +732,6 @@
     <t>One of the best hotels I've stayed in. My room was very clean and the staff was very friendly and helpful. The laundry room was nice and clean. I would reccomend this hotel to anybody! Beyond happy with my choice.</t>
   </si>
   <si>
-    <t>Brandon F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r282218145-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -798,9 +744,6 @@
     <t>I want to tell everyone how the great service was. The people that work there are always smiling. They seem like they love their jobs! There is one girl i think her name is Megan she works at the front counter and she always has a smile on her face she love to interact with others she was the one that helped me with everything and she answered every question i asked even if she didnt know where something was she would look it up for me. I will highly be back because of the great service i had from her!</t>
   </si>
   <si>
-    <t>bakerj7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r270886608-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -816,9 +759,6 @@
     <t>Clean, comfortable, good condition, good service, free continental breakfast, laundry, pool. Walking distance to multiple restaurants (Denny's, DQ, Taco Bell, et. al.) and a grocery. Minifridge, coffee maker, and microwave in the room. Ample parking.Regarding the noise, it is no worse than any other hotel. It is next to the freeway, but there were no raucous guests.One of the best economy hotels I've stayed at. Highly recommend.</t>
   </si>
   <si>
-    <t>Doug M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r261647754-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -837,9 +777,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>kazua21</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r247149111-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -858,9 +795,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>s1arch</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r244765711-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -879,9 +813,6 @@
     <t>The only thing good about this hotel is the service. The walls are paper thin, beds are terrible (if you have a bad back find another hotel). This hotel is said to be remodeled. So it looks like new paint, carpet and bedding (not new beds). Same beat up furniture. Shower had a hanging plastic shelf that was screwed into the tile. Place felt dirty even though it was clean. Very sloppy remodel!  Air doesn't work well. It is December and had ac on high and still was hot. Not sure about security but is in a bad part of Dallas. Drive 10 minutes south and find a better hotel in Waxahachie. More</t>
   </si>
   <si>
-    <t>Brinard O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r240910576-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -900,9 +831,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Larry_OK_580</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r225654916-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -921,9 +849,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>Scott V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r206647015-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -945,9 +870,6 @@
     <t>Since I couldn't find any recent reviews of this hotel, I was a little nervous booking it. However, it was close to where I needed it to be. Upon arriving, I was quite relieved...the staff was friendly and the hotel appearred clean.  The only thing that I would say negative was the tub looked as though it could maybe use a deep cleaning..it appeared to have been "wiped down", but could have used a little scrubbing around the drain. Not bad though. And I feel like if I would have asked, they would have come to clean it..like I said, it wasn't bad..I'm just a bit picky about cleaning around fixtures:-) Breakfast was the normal: scrambled eggs, sausage, waffles,etc. Oranges could have been a little fresher and bananas would have been nice. Overall, it was a good stay and I would stay again.More</t>
   </si>
   <si>
-    <t>Wendy S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r184495293-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -975,9 +897,6 @@
     <t>My co-worker and I stayed here for business and utilized the conference room for a training. The hotel staff was very friendly and took care of all of our needs. Our accommodations were excellent and the training room was very spacious. The room was very well lit, with many windows. There is a nice area to put training supplies and/or snacks for participants. Also there is free wi-fi and a projector screen. The breakfast bar was great and they provide all day coffee service for guests which is an extra bonus! Tennessee CASA was very impressed!More</t>
   </si>
   <si>
-    <t>RonandJoan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r175145066-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -999,9 +918,6 @@
     <t>The reviews seem mixed and mine is the same,  Front desk was  very nice,  easy checkin,  the room was warm upon arrival but  the AC cooled it down fine,but we could never figure out the TV, (and my husband usually can figure out ANYTHING!  )  Hair on blanket, bathtub surface  cracked and stained, made me insecure about using the pool.   Breakfast area is the smallest we have seen, but was fine for how many people ate when we did. It was the extended hot breakfast. The description of the room we reserved indicated a 1 BD suite with living room, so we did expect a separate bedroom, but it was just the extended bedroom suite with the pony wall between the sofa and beds, which had no light near the sofa nor coffee table.  The photos on the website do not show the "suite" with the 2 queen beds.  Only one night stand between the two which are shown on the website.  Not quite what we expected but was satisfactory,difficult to find, just be prepared for the frontage roads off 35, exit 210BMore</t>
   </si>
   <si>
-    <t>Kenny B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r165475703-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1023,9 +939,6 @@
     <t>Have stayed here several times for business and cannot go wrong w this comfort inn. I always hold comfort inns everywhere at higher standards and this one didn't disappoint. The front desk were very friendly and helpful also if anything needed like extra towels pillows etc. they get right on it and the breakfast is ur plain everyday breakfast but it tastes very good and hey it's free. If ner the area and need a place to stay, give this place a try u wont b disappointed!!!More</t>
   </si>
   <si>
-    <t>rollinhottie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r165136168-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1044,9 +957,6 @@
     <t>My company paid for me to stay here and within an hour I was trying to find a better place to stay that I would've GLADLY paid for. When I walked into the room it felt like the a/c hadn't been turned on in days. That wouldn't have been so bad if the a/c quickly cooled the room off, but unfortunately,  this was not the case.  It remained warm in the room all night.  The rooms are newly remodeled. . Very nice. The cable (directv) and the wifi are horrible. Cable kept freezing whatever I was watching. And the internet was spotty at best. Dont stay here even if it's free! !More</t>
   </si>
   <si>
-    <t>CodyC7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r156746966-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1065,9 +975,6 @@
     <t>The staff was excellent! They were very polite and helpful in assisting me however they could. I wouldn't think twice about coming here again-- the experience was much appreciated and I can't thank you guys enough!More</t>
   </si>
   <si>
-    <t>C J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r147894444-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1086,9 +993,6 @@
     <t>I stayed at this hotel for  3seperate weeks between October and December. The staff is very friendly and helpful. The area is good with restaurants, drug stores, grocery and Wal-Mart all within walking distance.  The rooms are oka. My first one was is need of repairs and had missing lampshades. My second was better with the exception of the shower curtain rod being pulled loose. The cleaning ladies are out, in force, every morning. However; the carpet looks like it doesn't get cleaned much. In fact, I did not hear them vacuum the whole time I was there. The free breakfast has adequate offerings.I also found a couple of silverfish in the showers in each room.More</t>
   </si>
   <si>
-    <t>hummingbird1995</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r139707731-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1110,9 +1014,6 @@
     <t>This hotel is nice for the money we pay.  We work with a trucking company and we get a discount because of it.  The breakfast is good.  The last time we stayed we got to eat the eggs and biscuts and gravey.  Which this was a first for us they never had that in the past.  The one thing that drives me crazy is that this hotel is not close to Walmart.  When we are there we don't have a vehicle and we are to tired to walk to the Walmart that is a least a mile away from the looks of it.  We did stay at this hotel for eight days waiting on our truck to get fixed.  Which my husband was paseing the floor.  I was on the internet, of course.  LOL  My husband was about to drive me crazy he was ready to get back to work.  I do like the restaurants that are close buy.  Dairy Queen, Taco bell, Denny.  The restaurants are nice.  A variety of food for all of those days we stayed there.  We even walked to Whataburger which was several blocks away.  We get a king bed which the beds are good.  The overall look of the hotel is nice.  The decor is nice.More</t>
   </si>
   <si>
-    <t>CathyNebo_NC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r135154195-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1131,9 +1032,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>corinthgran</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r117680905-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1155,9 +1053,6 @@
     <t>This Comfort Inn stay was not planned - we became sleepy driving and decided to pull over at first hotel we saw to spend the night.  What a pleasant surprise awaited us.  The clerk on duty was one of the managers.  She greeted us warmly and within minutes we had our room.  We asked for and were given senior citizen rates since husband and I are both seniors. The pictures are accurate-room very clean and spacious, with comfy beds, beautiful color on  tv, bathroom also clean with plenty of towels/ammenities.  There is free breakfast in mornings w/waffles, cereals, muffins, etc.  The breakfast area was small but adequate for us since we had no problem getting a table for 2.  We recommend this hotel and we would return if there is a need to do so.  There is free internet as well.More</t>
   </si>
   <si>
-    <t>Jeffery123456</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r94874700-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1173,9 +1068,6 @@
     <t>November 2010</t>
   </si>
   <si>
-    <t>Rofy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r80851089-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1194,9 +1086,6 @@
     <t>September 2010</t>
   </si>
   <si>
-    <t>ladybugsa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r16651946-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1218,9 +1107,6 @@
     <t>First of all when we checked in the man at the front desk was very rude.  He had us in a smoking room and We definitely did not want a smoking room.  My husband and I are not smokers and we have a baby.  Anyway, we finally check in to a smoking room because they do not have an alternative and we needed a place to stay.  We get into our room and our carpet is wet and there is a mess on the floor.  Maintenance must have been working in that room because there was caulking left on the floor in a pile.   I immediately called the front desk and they said they would call the manager.  Absolutely nothing happened.  I called again and I was ignored.  I will never stay her again.  Horrible experience.More</t>
   </si>
   <si>
-    <t>TOG11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r6781613-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -1234,9 +1120,6 @@
   </si>
   <si>
     <t>This Comfort Inn is located on the freeway south of Dallas and near very little.  My room was fine and the beds were very good.  The hotel claims to have an exercise room and all of the machines were broken.</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d226205-r860969-Comfort_Inn_Suites-Red_Oak_Texas.html</t>
@@ -1759,252 +1642,232 @@
       <c r="A2" t="n">
         <v>42105</v>
       </c>
-      <c r="B2" t="n">
-        <v>124690</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42105</v>
       </c>
-      <c r="B3" t="n">
-        <v>124691</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42105</v>
       </c>
-      <c r="B4" t="n">
-        <v>5104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42105</v>
       </c>
-      <c r="B5" t="n">
-        <v>124692</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s"/>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2012,131 +1875,117 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42105</v>
       </c>
-      <c r="B6" t="n">
-        <v>124689</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42105</v>
       </c>
-      <c r="B7" t="n">
-        <v>124693</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2144,176 +1993,174 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42105</v>
       </c>
-      <c r="B8" t="n">
-        <v>124694</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>95</v>
-      </c>
       <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42105</v>
       </c>
-      <c r="B9" t="n">
-        <v>41963</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42105</v>
       </c>
-      <c r="B10" t="n">
-        <v>124695</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2327,198 +2174,176 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42105</v>
       </c>
-      <c r="B11" t="n">
-        <v>124696</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>2</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42105</v>
       </c>
-      <c r="B12" t="n">
-        <v>81165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42105</v>
       </c>
-      <c r="B13" t="n">
-        <v>124697</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2526,61 +2351,59 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42105</v>
       </c>
-      <c r="B14" t="n">
-        <v>71676</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>4</v>
@@ -2591,66 +2414,60 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42105</v>
       </c>
-      <c r="B15" t="n">
-        <v>124698</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2658,64 +2475,60 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42105</v>
       </c>
-      <c r="B16" t="n">
-        <v>124699</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2723,322 +2536,300 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42105</v>
       </c>
-      <c r="B17" t="n">
-        <v>124700</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42105</v>
       </c>
-      <c r="B18" t="n">
-        <v>682</v>
-      </c>
-      <c r="C18" t="s">
-        <v>159</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42105</v>
       </c>
-      <c r="B19" t="n">
-        <v>124701</v>
-      </c>
-      <c r="C19" t="s">
-        <v>166</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42105</v>
       </c>
-      <c r="B20" t="n">
-        <v>124702</v>
-      </c>
-      <c r="C20" t="s">
-        <v>173</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42105</v>
       </c>
-      <c r="B21" t="n">
-        <v>7846</v>
-      </c>
-      <c r="C21" t="s">
-        <v>180</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3046,61 +2837,57 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42105</v>
       </c>
-      <c r="B22" t="n">
-        <v>124703</v>
-      </c>
-      <c r="C22" t="s">
-        <v>188</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
       </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
@@ -3113,54 +2900,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42105</v>
       </c>
-      <c r="B23" t="n">
-        <v>124704</v>
-      </c>
-      <c r="C23" t="s">
-        <v>195</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3168,11 +2951,11 @@
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3180,66 +2963,62 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42105</v>
       </c>
-      <c r="B24" t="n">
-        <v>12067</v>
-      </c>
-      <c r="C24" t="s">
-        <v>202</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3247,125 +3026,125 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42105</v>
       </c>
-      <c r="B25" t="n">
-        <v>124705</v>
-      </c>
-      <c r="C25" t="s">
-        <v>209</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s">
-        <v>216</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42105</v>
       </c>
-      <c r="B26" t="n">
-        <v>124706</v>
-      </c>
-      <c r="C26" t="s">
-        <v>218</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3373,54 +3152,50 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42105</v>
       </c>
-      <c r="B27" t="n">
-        <v>124707</v>
-      </c>
-      <c r="C27" t="s">
-        <v>224</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3434,115 +3209,111 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42105</v>
       </c>
-      <c r="B28" t="n">
-        <v>124708</v>
-      </c>
-      <c r="C28" t="s">
-        <v>231</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42105</v>
       </c>
-      <c r="B29" t="n">
-        <v>124709</v>
-      </c>
-      <c r="C29" t="s">
-        <v>237</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K29" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3556,54 +3327,50 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42105</v>
       </c>
-      <c r="B30" t="n">
-        <v>124710</v>
-      </c>
-      <c r="C30" t="s">
-        <v>244</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K30" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3617,54 +3384,50 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42105</v>
       </c>
-      <c r="B31" t="n">
-        <v>124711</v>
-      </c>
-      <c r="C31" t="s">
-        <v>250</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" t="s">
+        <v>226</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>227</v>
       </c>
-      <c r="K31" t="s">
-        <v>253</v>
-      </c>
-      <c r="L31" t="s">
-        <v>254</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>242</v>
-      </c>
       <c r="O31" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3678,54 +3441,50 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42105</v>
       </c>
-      <c r="B32" t="n">
-        <v>26754</v>
-      </c>
-      <c r="C32" t="s">
-        <v>255</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
+        <v>214</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>227</v>
       </c>
-      <c r="K32" t="s">
-        <v>258</v>
-      </c>
-      <c r="L32" t="s">
-        <v>259</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>242</v>
-      </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3739,51 +3498,51 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42105</v>
       </c>
-      <c r="B33" t="n">
-        <v>124712</v>
-      </c>
-      <c r="C33" t="s">
-        <v>260</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="J33" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="L33" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+      <c r="N33" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" t="s">
+        <v>228</v>
+      </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -3796,197 +3555,169 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42105</v>
       </c>
-      <c r="B34" t="n">
-        <v>25562</v>
-      </c>
-      <c r="C34" t="s">
-        <v>266</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="J34" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42105</v>
       </c>
-      <c r="B35" t="n">
-        <v>124713</v>
-      </c>
-      <c r="C35" t="s">
-        <v>273</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s">
-        <v>279</v>
-      </c>
-      <c r="O35" t="s">
-        <v>53</v>
-      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42105</v>
       </c>
-      <c r="B36" t="n">
-        <v>124714</v>
-      </c>
-      <c r="C36" t="s">
-        <v>280</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="J36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>252</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -3997,61 +3728,59 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42105</v>
       </c>
-      <c r="B37" t="n">
-        <v>124715</v>
-      </c>
-      <c r="C37" t="s">
-        <v>287</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="K37" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="L37" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="n">
         <v>5</v>
       </c>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>5</v>
@@ -4062,63 +3791,59 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42105</v>
       </c>
-      <c r="B38" t="n">
-        <v>124716</v>
-      </c>
-      <c r="C38" t="s">
-        <v>294</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="J38" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="K38" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="L38" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>300</v>
-      </c>
-      <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4129,70 +3854,60 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42105</v>
       </c>
-      <c r="B39" t="n">
-        <v>77328</v>
-      </c>
-      <c r="C39" t="s">
-        <v>301</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4200,67 +3915,59 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42105</v>
       </c>
-      <c r="B40" t="n">
-        <v>13972</v>
-      </c>
-      <c r="C40" t="s">
-        <v>309</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="K40" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="L40" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4268,64 +3975,56 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>316</v>
-      </c>
-      <c r="X40" t="s">
-        <v>317</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42105</v>
       </c>
-      <c r="B41" t="n">
-        <v>124717</v>
-      </c>
-      <c r="C41" t="s">
-        <v>319</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="K41" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>282</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
         <v>3</v>
-      </c>
-      <c r="N41" t="s">
-        <v>325</v>
-      </c>
-      <c r="O41" t="s">
-        <v>243</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
       </c>
       <c r="Q41" t="n">
         <v>4</v>
@@ -4334,70 +4033,62 @@
         <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>316</v>
-      </c>
-      <c r="X41" t="s">
-        <v>317</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42105</v>
       </c>
-      <c r="B42" t="n">
-        <v>376</v>
-      </c>
-      <c r="C42" t="s">
-        <v>327</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="J42" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="K42" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4409,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
@@ -4419,128 +4110,128 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="Y42" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42105</v>
       </c>
-      <c r="B43" t="n">
-        <v>124718</v>
-      </c>
-      <c r="C43" t="s">
-        <v>335</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="J43" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="K43" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="L43" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+      <c r="N43" t="s">
+        <v>298</v>
+      </c>
+      <c r="O43" t="s">
+        <v>228</v>
+      </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
         <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="X43" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="Y43" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42105</v>
       </c>
-      <c r="B44" t="n">
-        <v>124719</v>
-      </c>
-      <c r="C44" t="s">
-        <v>342</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="J44" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="K44" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="L44" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
+      <c r="N44" t="s">
+        <v>305</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
@@ -4551,7 +4242,7 @@
         <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4561,51 +4252,47 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="X44" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="Y44" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42105</v>
       </c>
-      <c r="B45" t="n">
-        <v>782</v>
-      </c>
-      <c r="C45" t="s">
-        <v>349</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="J45" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="K45" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="L45" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
@@ -4616,77 +4303,69 @@
         <v>3</v>
       </c>
       <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
         <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
       </c>
       <c r="S45" t="n">
         <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="X45" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="Y45" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42105</v>
       </c>
-      <c r="B46" t="n">
-        <v>124720</v>
-      </c>
-      <c r="C46" t="s">
-        <v>356</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="J46" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="K46" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="L46" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
-      <c r="N46" t="s">
-        <v>362</v>
-      </c>
-      <c r="O46" t="s">
-        <v>61</v>
-      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
       <c r="P46" t="n">
         <v>5</v>
       </c>
@@ -4707,137 +4386,133 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="X46" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="Y46" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42105</v>
       </c>
-      <c r="B47" t="n">
-        <v>124721</v>
-      </c>
-      <c r="C47" t="s">
-        <v>364</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="J47" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="K47" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
-      </c>
-      <c r="N47" t="s">
-        <v>370</v>
-      </c>
-      <c r="O47" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
         <v>3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>290</v>
+      </c>
+      <c r="X47" t="s">
+        <v>291</v>
+      </c>
       <c r="Y47" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42105</v>
       </c>
-      <c r="B48" t="n">
-        <v>124722</v>
-      </c>
-      <c r="C48" t="s">
-        <v>371</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="J48" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
         <v>5</v>
       </c>
@@ -4848,73 +4523,73 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>290</v>
+      </c>
+      <c r="X48" t="s">
+        <v>291</v>
+      </c>
       <c r="Y48" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42105</v>
       </c>
-      <c r="B49" t="n">
-        <v>124723</v>
-      </c>
-      <c r="C49" t="s">
-        <v>379</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="J49" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s">
-        <v>87</v>
+        <v>335</v>
       </c>
       <c r="L49" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4922,64 +4597,56 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42105</v>
       </c>
-      <c r="B50" t="n">
-        <v>124724</v>
-      </c>
-      <c r="C50" t="s">
-        <v>385</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="J50" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="K50" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="L50" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
       </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
         <v>5</v>
       </c>
@@ -4993,70 +4660,66 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42105</v>
       </c>
-      <c r="B51" t="n">
-        <v>124725</v>
-      </c>
-      <c r="C51" t="s">
-        <v>392</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="J51" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="K51" t="s">
-        <v>396</v>
+        <v>94</v>
       </c>
       <c r="L51" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="O51" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5064,121 +4727,247 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42105</v>
       </c>
-      <c r="B52" t="n">
-        <v>16545</v>
-      </c>
-      <c r="C52" t="s">
-        <v>400</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="J52" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="K52" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="L52" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>355</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>42105</v>
       </c>
-      <c r="B53" t="n">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>406</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="J53" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>361</v>
+      </c>
+      <c r="O53" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>412</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42105</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>364</v>
+      </c>
+      <c r="J54" t="s">
+        <v>365</v>
+      </c>
+      <c r="K54" t="s">
+        <v>366</v>
+      </c>
+      <c r="L54" t="s">
+        <v>367</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42105</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>369</v>
+      </c>
+      <c r="J55" t="s">
+        <v>370</v>
+      </c>
+      <c r="K55" t="s">
+        <v>371</v>
+      </c>
+      <c r="L55" t="s">
+        <v>372</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
